--- a/Leetcode3.xlsx
+++ b/Leetcode3.xlsx
@@ -645,7 +645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,6 +682,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -709,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -721,6 +728,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1026,12 +1034,13 @@
   <dimension ref="A1:E174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" width="56.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1087,8 +1096,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B4">
@@ -1164,8 +1173,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>153</v>
       </c>
       <c r="B11">
@@ -1232,7 +1241,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>129</v>
       </c>
@@ -1296,7 +1305,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>169</v>
       </c>
@@ -1313,7 +1322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>143</v>
       </c>
@@ -1352,8 +1361,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B24">
@@ -1369,7 +1378,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1400,8 +1409,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B27">
@@ -1422,8 +1431,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>191</v>
       </c>
       <c r="B29">
@@ -1444,8 +1453,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B31">
@@ -1461,8 +1470,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B32">
@@ -1478,8 +1487,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>152</v>
       </c>
       <c r="B33">
@@ -1500,8 +1509,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B35">
@@ -1539,7 +1548,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -1556,8 +1565,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B39">
@@ -1575,8 +1584,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B41">
@@ -1592,7 +1601,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -1609,8 +1618,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B43">
@@ -1648,7 +1657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>124</v>
       </c>
@@ -1733,7 +1742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>136</v>
       </c>
@@ -1755,8 +1764,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B56">
@@ -1772,7 +1781,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -1789,7 +1798,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -1820,8 +1829,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B60">
@@ -1851,8 +1860,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>175</v>
       </c>
       <c r="B62">
@@ -1865,7 +1874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -1879,7 +1888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -1957,8 +1966,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B70">
@@ -1974,8 +1983,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B71">
@@ -2117,8 +2126,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B84">
@@ -2134,7 +2143,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>108</v>
       </c>
@@ -2151,8 +2160,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B86">
@@ -2173,8 +2182,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>197</v>
       </c>
       <c r="B88">
@@ -2190,8 +2199,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B89">
@@ -2207,7 +2216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>54</v>
       </c>
@@ -2224,8 +2233,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B91">
@@ -2255,8 +2264,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
         <v>180</v>
       </c>
       <c r="B93">
@@ -2272,8 +2281,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B94">
@@ -2317,8 +2326,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B97">
@@ -2334,8 +2343,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
         <v>156</v>
       </c>
       <c r="B98">
@@ -2385,7 +2394,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>76</v>
       </c>
@@ -2402,8 +2411,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B102">
@@ -2419,8 +2428,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B103">
@@ -2436,7 +2445,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>161</v>
       </c>
@@ -2470,7 +2479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>138</v>
       </c>
@@ -2487,8 +2496,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B107">
@@ -2509,8 +2518,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B109">
@@ -2526,8 +2535,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B110">
@@ -2543,8 +2552,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B111">
@@ -2557,8 +2566,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B112">
@@ -2596,8 +2605,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B115">
@@ -2613,8 +2622,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B116">
@@ -2630,8 +2639,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B117">
@@ -2644,7 +2653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>127</v>
       </c>
@@ -2661,7 +2670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>202</v>
       </c>
@@ -2697,7 +2706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>77</v>
       </c>
@@ -2711,7 +2720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>93</v>
       </c>
@@ -2745,7 +2754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>121</v>
       </c>
@@ -2767,8 +2776,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B127">
@@ -2784,8 +2793,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B128">
@@ -2801,8 +2810,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B129">
@@ -2818,8 +2827,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B130">
@@ -2835,8 +2844,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B131">
@@ -2880,7 +2889,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>107</v>
       </c>
@@ -2902,7 +2911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>83</v>
       </c>
@@ -2916,7 +2925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>90</v>
       </c>
@@ -2983,7 +2992,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>125</v>
       </c>
@@ -3022,7 +3031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>62</v>
       </c>
@@ -3056,8 +3065,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
         <v>177</v>
       </c>
       <c r="B147">
@@ -3092,8 +3101,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B150">
@@ -3109,7 +3118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>100</v>
       </c>
@@ -3123,7 +3132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>69</v>
       </c>
@@ -3226,8 +3235,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B160">
@@ -3243,8 +3252,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B161">
@@ -3311,8 +3320,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B165">
@@ -3342,8 +3351,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B167">
@@ -3440,7 +3449,7 @@
   <autoFilter ref="C1:C174">
     <filterColumn colId="0">
       <filters>
-        <filter val="3"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Leetcode3.xlsx
+++ b/Leetcode3.xlsx
@@ -7,24 +7,25 @@
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
-    <sheet name="3rd" sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="L1" sheetId="2" r:id="rId3"/>
-    <sheet name="L2" sheetId="3" r:id="rId4"/>
-    <sheet name="L3" sheetId="4" r:id="rId5"/>
-    <sheet name="L4" sheetId="5" r:id="rId6"/>
-    <sheet name="L5" sheetId="6" r:id="rId7"/>
+    <sheet name="4th" sheetId="8" r:id="rId1"/>
+    <sheet name="3rd" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="L1" sheetId="2" r:id="rId4"/>
+    <sheet name="L2" sheetId="3" r:id="rId5"/>
+    <sheet name="L3" sheetId="4" r:id="rId6"/>
+    <sheet name="L4" sheetId="5" r:id="rId7"/>
+    <sheet name="L5" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3rd'!$C$1:$C$174</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$C$1:$C$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'3rd'!$C$1:$C$174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$C$1:$C$133</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="205">
   <si>
     <t>Id</t>
   </si>
@@ -1030,11 +1031,2602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>81</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>84</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>85</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>87</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>97</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>57</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>68</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>69</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>72</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>75</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>76</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>89</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>90</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>94</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>95</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>99</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>103</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="2">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>109</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>115</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="2">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>117</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="2">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>123</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>124</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>128</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>130</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>132</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>2</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>6</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>11</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>12</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="2">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2">
+        <v>4</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>15</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="2">
+        <v>3</v>
+      </c>
+      <c r="D55" s="2">
+        <v>5</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>16</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="2">
+        <v>3</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>17</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>18</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="2">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>22</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3</v>
+      </c>
+      <c r="D59" s="2">
+        <v>4</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>23</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="2">
+        <v>3</v>
+      </c>
+      <c r="D60" s="2">
+        <v>4</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>30</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>39</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="2">
+        <v>3</v>
+      </c>
+      <c r="D62" s="2">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>46</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3</v>
+      </c>
+      <c r="D63" s="2">
+        <v>4</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>49</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="2">
+        <v>3</v>
+      </c>
+      <c r="D64" s="2">
+        <v>4</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>50</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="2">
+        <v>3</v>
+      </c>
+      <c r="D65" s="2">
+        <v>5</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>53</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="2">
+        <v>3</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>55</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="2">
+        <v>3</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>59</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="2">
+        <v>3</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>61</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="2">
+        <v>3</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>63</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="2">
+        <v>3</v>
+      </c>
+      <c r="D70" s="2">
+        <v>3</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>64</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="2">
+        <v>3</v>
+      </c>
+      <c r="D71" s="2">
+        <v>3</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" s="2">
+        <v>3</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="2">
+        <v>3</v>
+      </c>
+      <c r="D73" s="2">
+        <v>5</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>74</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="2">
+        <v>3</v>
+      </c>
+      <c r="D74" s="2">
+        <v>3</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>77</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="2">
+        <v>3</v>
+      </c>
+      <c r="D75" s="2">
+        <v>4</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>78</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="2">
+        <v>3</v>
+      </c>
+      <c r="D76" s="2">
+        <v>4</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>79</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="2">
+        <v>3</v>
+      </c>
+      <c r="D77" s="2">
+        <v>4</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>82</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="2">
+        <v>3</v>
+      </c>
+      <c r="D78" s="2">
+        <v>3</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>86</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" s="2">
+        <v>3</v>
+      </c>
+      <c r="D79" s="2">
+        <v>3</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>91</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="2">
+        <v>3</v>
+      </c>
+      <c r="D80" s="2">
+        <v>4</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>92</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" s="2">
+        <v>3</v>
+      </c>
+      <c r="D81" s="2">
+        <v>2</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>93</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="2">
+        <v>3</v>
+      </c>
+      <c r="D82" s="2">
+        <v>3</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>96</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C83" s="2">
+        <v>3</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>98</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" s="2">
+        <v>3</v>
+      </c>
+      <c r="D84" s="2">
+        <v>5</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>102</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="2">
+        <v>3</v>
+      </c>
+      <c r="D85" s="2">
+        <v>4</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>105</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" s="2">
+        <v>3</v>
+      </c>
+      <c r="D86" s="2">
+        <v>3</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>106</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" s="2">
+        <v>3</v>
+      </c>
+      <c r="D87" s="2">
+        <v>3</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>107</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" s="2">
+        <v>3</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>114</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="2">
+        <v>3</v>
+      </c>
+      <c r="D89" s="2">
+        <v>3</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>116</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" s="2">
+        <v>3</v>
+      </c>
+      <c r="D90" s="2">
+        <v>3</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>120</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C91" s="2">
+        <v>3</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>122</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C92" s="2">
+        <v>3</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>127</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" s="2">
+        <v>3</v>
+      </c>
+      <c r="D93" s="2">
+        <v>5</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>131</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C94" s="2">
+        <v>3</v>
+      </c>
+      <c r="D94" s="2">
+        <v>4</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>1</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2</v>
+      </c>
+      <c r="D95" s="2">
+        <v>5</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>7</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="2">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2">
+        <v>3</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>8</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="2">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2">
+        <v>5</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>9</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="2">
+        <v>2</v>
+      </c>
+      <c r="D98" s="2">
+        <v>2</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>13</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="2">
+        <v>2</v>
+      </c>
+      <c r="D99" s="2">
+        <v>4</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>14</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100" s="2">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>19</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" s="2">
+        <v>2</v>
+      </c>
+      <c r="D101" s="2">
+        <v>3</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>20</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" s="2">
+        <v>2</v>
+      </c>
+      <c r="D102" s="2">
+        <v>5</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>21</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C103" s="2">
+        <v>2</v>
+      </c>
+      <c r="D103" s="2">
+        <v>5</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>24</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C104" s="2">
+        <v>2</v>
+      </c>
+      <c r="D104" s="2">
+        <v>4</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>35</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C105" s="2">
+        <v>2</v>
+      </c>
+      <c r="D105" s="2">
+        <v>2</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>36</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" s="2">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2">
+        <v>2</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>38</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" s="2">
+        <v>2</v>
+      </c>
+      <c r="D107" s="2">
+        <v>2</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>62</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" s="2">
+        <v>2</v>
+      </c>
+      <c r="D108" s="2">
+        <v>3</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>65</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" s="2">
+        <v>2</v>
+      </c>
+      <c r="D109" s="2">
+        <v>5</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>67</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" s="2">
+        <v>2</v>
+      </c>
+      <c r="D110" s="2">
+        <v>4</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>70</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2">
+        <v>5</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>80</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2</v>
+      </c>
+      <c r="D112" s="2">
+        <v>2</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>88</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="2">
+        <v>2</v>
+      </c>
+      <c r="D113" s="2">
+        <v>5</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>108</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" s="2">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2">
+        <v>3</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C115" s="2">
+        <v>2</v>
+      </c>
+      <c r="D115" s="2">
+        <v>2</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>118</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C116" s="2">
+        <v>2</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>119</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C117" s="2">
+        <v>2</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>121</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C118" s="2">
+        <v>2</v>
+      </c>
+      <c r="D118" s="2">
+        <v>1</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>125</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C119" s="2">
+        <v>2</v>
+      </c>
+      <c r="D119" s="2">
+        <v>5</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>129</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C120" s="2">
+        <v>2</v>
+      </c>
+      <c r="D120" s="2">
+        <v>4</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>26</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1</v>
+      </c>
+      <c r="D121" s="2">
+        <v>3</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>27</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C122" s="2">
+        <v>1</v>
+      </c>
+      <c r="D122" s="2">
+        <v>4</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>58</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C123" s="2">
+        <v>1</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>66</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C124" s="2">
+        <v>1</v>
+      </c>
+      <c r="D124" s="2">
+        <v>2</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>83</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C125" s="2">
+        <v>1</v>
+      </c>
+      <c r="D125" s="2">
+        <v>3</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>100</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C126" s="2">
+        <v>1</v>
+      </c>
+      <c r="D126" s="2">
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>101</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C127" s="2">
+        <v>1</v>
+      </c>
+      <c r="D127" s="2">
+        <v>2</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>104</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C128" s="2">
+        <v>1</v>
+      </c>
+      <c r="D128" s="2">
+        <v>1</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>110</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C129" s="2">
+        <v>1</v>
+      </c>
+      <c r="D129" s="2">
+        <v>2</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>111</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" s="2">
+        <v>1</v>
+      </c>
+      <c r="D130" s="2">
+        <v>1</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>112</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C131" s="2">
+        <v>1</v>
+      </c>
+      <c r="D131" s="2">
+        <v>3</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>126</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C132" s="2">
+        <v>1</v>
+      </c>
+      <c r="D132" s="2">
+        <v>1</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +3654,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -1079,8 +3671,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B3">
@@ -1110,7 +3702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>99</v>
       </c>
@@ -1127,12 +3719,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1149,12 +3741,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>78</v>
       </c>
@@ -1168,7 +3760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>186</v>
       </c>
@@ -1190,8 +3782,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B12">
@@ -1207,8 +3799,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B13">
@@ -1224,8 +3816,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B14">
@@ -1241,7 +3833,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>129</v>
       </c>
@@ -1258,7 +3850,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>186</v>
       </c>
@@ -1266,12 +3858,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>141</v>
       </c>
@@ -1288,8 +3880,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B19">
@@ -1306,7 +3898,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B20">
@@ -1322,7 +3914,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>143</v>
       </c>
@@ -1339,7 +3931,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>133</v>
       </c>
@@ -1347,7 +3939,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>102</v>
       </c>
@@ -1361,7 +3953,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>64</v>
       </c>
@@ -1379,7 +3971,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B25">
@@ -1395,7 +3987,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>109</v>
       </c>
@@ -1409,7 +4001,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>190</v>
       </c>
@@ -1426,12 +4018,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>191</v>
       </c>
@@ -1448,7 +4040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>133</v>
       </c>
@@ -1470,7 +4062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>151</v>
       </c>
@@ -1487,7 +4079,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>152</v>
       </c>
@@ -1504,7 +4096,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>14</v>
       </c>
@@ -1526,7 +4118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>126</v>
       </c>
@@ -1543,13 +4135,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B38">
@@ -1565,7 +4157,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>51</v>
       </c>
@@ -1579,12 +4171,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>104</v>
       </c>
@@ -1602,7 +4194,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B42">
@@ -1618,7 +4210,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>157</v>
       </c>
@@ -1635,12 +4227,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>41</v>
       </c>
@@ -1658,7 +4250,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B46">
@@ -1671,7 +4263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
@@ -1688,17 +4280,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>88</v>
       </c>
@@ -1715,7 +4307,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>10</v>
       </c>
@@ -1723,12 +4315,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>28</v>
       </c>
@@ -1743,7 +4335,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B54">
@@ -1759,7 +4351,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>57</v>
       </c>
@@ -1782,7 +4374,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B57">
@@ -1799,7 +4391,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B58">
@@ -1815,8 +4407,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B59">
@@ -1829,7 +4421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>33</v>
       </c>
@@ -1846,8 +4438,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B61">
@@ -1860,7 +4452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>175</v>
       </c>
@@ -1875,7 +4467,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B63">
@@ -1889,7 +4481,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B64">
@@ -1905,13 +4497,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B66">
@@ -1927,8 +4519,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B67">
@@ -1944,13 +4536,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>146</v>
       </c>
       <c r="B69">
@@ -1966,7 +4558,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>82</v>
       </c>
@@ -1983,7 +4575,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>15</v>
       </c>
@@ -2000,7 +4592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>85</v>
       </c>
@@ -2017,7 +4609,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>10</v>
       </c>
@@ -2025,12 +4617,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>42</v>
       </c>
@@ -2047,7 +4639,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>196</v>
       </c>
@@ -2055,12 +4647,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>122</v>
       </c>
@@ -2077,12 +4669,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>39</v>
       </c>
@@ -2099,18 +4691,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B83">
@@ -2126,7 +4718,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>96</v>
       </c>
@@ -2144,7 +4736,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B85">
@@ -2160,7 +4752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>71</v>
       </c>
@@ -2177,12 +4769,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>197</v>
       </c>
@@ -2199,7 +4791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>198</v>
       </c>
@@ -2217,7 +4809,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B90">
@@ -2247,7 +4839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>179</v>
       </c>
@@ -2264,7 +4856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>180</v>
       </c>
@@ -2281,7 +4873,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>120</v>
       </c>
@@ -2298,8 +4890,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
         <v>199</v>
       </c>
       <c r="B95">
@@ -2312,8 +4904,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
         <v>200</v>
       </c>
       <c r="B96">
@@ -2326,7 +4918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>155</v>
       </c>
@@ -2360,8 +4952,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B99">
@@ -2377,7 +4969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>75</v>
       </c>
@@ -2395,7 +4987,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B101">
@@ -2428,7 +5020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>160</v>
       </c>
@@ -2446,7 +5038,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B104">
@@ -2462,7 +5054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>201</v>
       </c>
@@ -2480,7 +5072,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B106">
@@ -2496,7 +5088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>25</v>
       </c>
@@ -2513,12 +5105,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>47</v>
       </c>
@@ -2552,7 +5144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>116</v>
       </c>
@@ -2566,7 +5158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>115</v>
       </c>
@@ -2583,12 +5175,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>48</v>
       </c>
@@ -2605,7 +5197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>36</v>
       </c>
@@ -2622,7 +5214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>128</v>
       </c>
@@ -2639,7 +5231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>21</v>
       </c>
@@ -2654,7 +5246,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B118">
@@ -2671,7 +5263,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="7" t="s">
         <v>202</v>
       </c>
       <c r="B119">
@@ -2687,12 +5279,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>29</v>
       </c>
@@ -2707,7 +5299,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B122">
@@ -2721,7 +5313,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B123">
@@ -2737,8 +5329,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B124">
@@ -2755,7 +5347,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B125">
@@ -2771,12 +5363,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>106</v>
       </c>
@@ -2793,7 +5385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>59</v>
       </c>
@@ -2810,7 +5402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>58</v>
       </c>
@@ -2827,7 +5419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>114</v>
       </c>
@@ -2858,7 +5450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>105</v>
       </c>
@@ -2872,8 +5464,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B133">
@@ -2890,7 +5482,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B134">
@@ -2906,13 +5498,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B136">
@@ -2926,7 +5518,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B137">
@@ -2939,7 +5531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>101</v>
       </c>
@@ -2953,7 +5545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>23</v>
       </c>
@@ -2970,7 +5562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>110</v>
       </c>
@@ -2987,13 +5579,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B142">
@@ -3009,13 +5601,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B144">
@@ -3032,7 +5624,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B145">
@@ -3048,7 +5640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>176</v>
       </c>
@@ -3065,7 +5657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>177</v>
       </c>
@@ -3082,12 +5674,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>44</v>
       </c>
@@ -3119,7 +5711,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B151">
@@ -3133,7 +5725,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B152">
@@ -3149,13 +5741,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B154">
@@ -3171,7 +5763,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>6</v>
       </c>
@@ -3188,7 +5780,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
         <v>203</v>
       </c>
@@ -3196,8 +5788,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B157">
@@ -3213,8 +5805,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B158">
@@ -3230,12 +5822,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>94</v>
       </c>
@@ -3252,7 +5844,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>95</v>
       </c>
@@ -3269,7 +5861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>97</v>
       </c>
@@ -3286,7 +5878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>170</v>
       </c>
@@ -3303,7 +5895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>37</v>
       </c>
@@ -3334,7 +5926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>137</v>
       </c>
@@ -3351,7 +5943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>72</v>
       </c>
@@ -3368,17 +5960,17 @@
         <v>187</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>172</v>
       </c>
@@ -3395,13 +5987,13 @@
         <v>142</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E171" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B172">
@@ -3411,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>112</v>
       </c>
@@ -3428,8 +6020,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B174">
@@ -3446,19 +6038,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C174">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C174"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F133"/>
   <sheetViews>
@@ -6077,12 +8663,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6330,12 +8916,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A1:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6850,12 +9436,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A45" sqref="A1:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7753,11 +10339,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A1:XFD38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8513,11 +11101,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="A1:F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Leetcode3.xlsx
+++ b/Leetcode3.xlsx
@@ -1033,7 +1033,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1042,7 +1044,7 @@
     <col min="6" max="6" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>4</v>
       </c>
@@ -1062,7 +1064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -1082,7 +1084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>31</v>
       </c>
@@ -1590,7 +1592,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>56</v>
       </c>
@@ -1610,7 +1612,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>57</v>
       </c>
@@ -1764,7 +1766,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>94</v>
       </c>
@@ -1824,7 +1826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>103</v>
       </c>
@@ -1844,7 +1846,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>109</v>
       </c>
@@ -2022,7 +2024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>3</v>
       </c>
@@ -2196,7 +2198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>23</v>
       </c>
@@ -2276,7 +2278,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>49</v>
       </c>
@@ -2368,7 +2370,7 @@
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>61</v>
       </c>
@@ -2544,7 +2546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>82</v>
       </c>
@@ -2564,7 +2566,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>86</v>
       </c>
@@ -2604,7 +2606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>92</v>
       </c>
@@ -2704,7 +2706,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>105</v>
       </c>
@@ -2724,7 +2726,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>106</v>
       </c>
@@ -2884,7 +2886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>1</v>
       </c>
@@ -2996,7 +2998,7 @@
       </c>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>19</v>
       </c>
@@ -3036,7 +3038,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>21</v>
       </c>
@@ -3056,7 +3058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>24</v>
       </c>
@@ -3462,7 +3464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>83</v>
       </c>
